--- a/natmiOut/OldD2/LR-pairs_lrc2p/Spon2-Itgam.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Spon2-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -89,12 +98,6 @@
   </si>
   <si>
     <t>Itgam</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.49270970102685</v>
+        <v>0.472803</v>
       </c>
       <c r="H2">
-        <v>1.49270970102685</v>
+        <v>0.9456059999999999</v>
       </c>
       <c r="I2">
-        <v>0.6038612194659926</v>
+        <v>0.1289198617355981</v>
       </c>
       <c r="J2">
-        <v>0.6038612194659926</v>
+        <v>0.09646945066729889</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>119.687408056835</v>
+        <v>125.6990966666667</v>
       </c>
       <c r="N2">
-        <v>119.687408056835</v>
+        <v>377.09729</v>
       </c>
       <c r="O2">
-        <v>0.5810005795823685</v>
+        <v>0.5869187672767673</v>
       </c>
       <c r="P2">
-        <v>0.5810005795823685</v>
+        <v>0.5869561130196211</v>
       </c>
       <c r="Q2">
-        <v>178.6585550971968</v>
+        <v>59.43091000129</v>
       </c>
       <c r="R2">
-        <v>178.6585550971968</v>
+        <v>356.58546000774</v>
       </c>
       <c r="S2">
-        <v>0.3508437184970575</v>
+        <v>0.0756654863273485</v>
       </c>
       <c r="T2">
-        <v>0.3508437184970575</v>
+        <v>0.05662333378881586</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,309 +590,1425 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.49270970102685</v>
+        <v>0.472803</v>
       </c>
       <c r="H3">
-        <v>1.49270970102685</v>
+        <v>0.9456059999999999</v>
       </c>
       <c r="I3">
-        <v>0.6038612194659926</v>
+        <v>0.1289198617355981</v>
       </c>
       <c r="J3">
-        <v>0.6038612194659926</v>
+        <v>0.09646945066729889</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>86.3148099493295</v>
+        <v>88.299099</v>
       </c>
       <c r="N3">
-        <v>86.3148099493295</v>
+        <v>264.897297</v>
       </c>
       <c r="O3">
-        <v>0.4189994204176315</v>
+        <v>0.4122893458348313</v>
       </c>
       <c r="P3">
-        <v>0.4189994204176315</v>
+        <v>0.4123155798773417</v>
       </c>
       <c r="Q3">
-        <v>128.842954153653</v>
+        <v>41.748078904497</v>
       </c>
       <c r="R3">
-        <v>128.842954153653</v>
+        <v>250.488473426982</v>
       </c>
       <c r="S3">
-        <v>0.253017500968935</v>
+        <v>0.05315228546008664</v>
       </c>
       <c r="T3">
-        <v>0.253017500968935</v>
+        <v>0.03977585749233595</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.377961510511904</v>
+        <v>0.472803</v>
       </c>
       <c r="H4">
-        <v>0.377961510511904</v>
+        <v>0.9456059999999999</v>
       </c>
       <c r="I4">
-        <v>0.1529006601162442</v>
+        <v>0.1289198617355981</v>
       </c>
       <c r="J4">
-        <v>0.1529006601162442</v>
+        <v>0.09646945066729889</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>119.687408056835</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N4">
-        <v>119.687408056835</v>
+        <v>0.38615</v>
       </c>
       <c r="O4">
-        <v>0.5810005795823685</v>
+        <v>0.0006010085142322918</v>
       </c>
       <c r="P4">
-        <v>0.5810005795823685</v>
+        <v>0.0006010467565081856</v>
       </c>
       <c r="Q4">
-        <v>45.23723353841599</v>
+        <v>0.06085762615</v>
       </c>
       <c r="R4">
-        <v>45.23723353841599</v>
+        <v>0.3651457569</v>
       </c>
       <c r="S4">
-        <v>0.08883537214606463</v>
+        <v>7.748193455674429E-05</v>
       </c>
       <c r="T4">
-        <v>0.08883537214606463</v>
+        <v>5.798265042570642E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.377961510511904</v>
+        <v>0.472803</v>
       </c>
       <c r="H5">
-        <v>0.377961510511904</v>
+        <v>0.9456059999999999</v>
       </c>
       <c r="I5">
-        <v>0.1529006601162442</v>
+        <v>0.1289198617355981</v>
       </c>
       <c r="J5">
-        <v>0.1529006601162442</v>
+        <v>0.09646945066729889</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>86.3148099493295</v>
+        <v>0.04088</v>
       </c>
       <c r="N5">
-        <v>86.3148099493295</v>
+        <v>0.08176</v>
       </c>
       <c r="O5">
-        <v>0.4189994204176315</v>
+        <v>0.0001908783741692303</v>
       </c>
       <c r="P5">
-        <v>0.4189994204176315</v>
+        <v>0.000127260346528834</v>
       </c>
       <c r="Q5">
-        <v>32.6236759479965</v>
+        <v>0.01932818664</v>
       </c>
       <c r="R5">
-        <v>32.6236759479965</v>
+        <v>0.07731274655999999</v>
       </c>
       <c r="S5">
-        <v>0.0640652879701796</v>
+        <v>2.460801360621292E-05</v>
       </c>
       <c r="T5">
-        <v>0.0640652879701796</v>
+        <v>1.227673572136672E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.601270441457087</v>
+        <v>1.579712666666667</v>
       </c>
       <c r="H6">
-        <v>0.601270441457087</v>
+        <v>4.739138</v>
       </c>
       <c r="I6">
-        <v>0.2432381204177632</v>
+        <v>0.4307424838011595</v>
       </c>
       <c r="J6">
-        <v>0.2432381204177632</v>
+        <v>0.483480476537291</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>119.687408056835</v>
+        <v>125.6990966666667</v>
       </c>
       <c r="N6">
-        <v>119.687408056835</v>
+        <v>377.09729</v>
       </c>
       <c r="O6">
-        <v>0.5810005795823685</v>
+        <v>0.5869187672767673</v>
       </c>
       <c r="P6">
-        <v>0.5810005795823685</v>
+        <v>0.5869561130196211</v>
       </c>
       <c r="Q6">
-        <v>71.96450067918768</v>
+        <v>198.5684551928911</v>
       </c>
       <c r="R6">
-        <v>71.96450067918768</v>
+        <v>1787.11609673602</v>
       </c>
       <c r="S6">
-        <v>0.1413214889392463</v>
+        <v>0.2528108476063094</v>
       </c>
       <c r="T6">
-        <v>0.1413214889392463</v>
+        <v>0.2837818212292024</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.579712666666667</v>
+      </c>
+      <c r="H7">
+        <v>4.739138</v>
+      </c>
+      <c r="I7">
+        <v>0.4307424838011595</v>
+      </c>
+      <c r="J7">
+        <v>0.483480476537291</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>88.299099</v>
+      </c>
+      <c r="N7">
+        <v>264.897297</v>
+      </c>
+      <c r="O7">
+        <v>0.4122893458348313</v>
+      </c>
+      <c r="P7">
+        <v>0.4123155798773417</v>
+      </c>
+      <c r="Q7">
+        <v>139.487205145554</v>
+      </c>
+      <c r="R7">
+        <v>1255.384846309986</v>
+      </c>
+      <c r="S7">
+        <v>0.1775905368696505</v>
+      </c>
+      <c r="T7">
+        <v>0.1993465330428467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.579712666666667</v>
+      </c>
+      <c r="H8">
+        <v>4.739138</v>
+      </c>
+      <c r="I8">
+        <v>0.4307424838011595</v>
+      </c>
+      <c r="J8">
+        <v>0.483480476537291</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1287166666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.38615</v>
+      </c>
+      <c r="O8">
+        <v>0.0006010085142322918</v>
+      </c>
+      <c r="P8">
+        <v>0.0006010467565081856</v>
+      </c>
+      <c r="Q8">
+        <v>0.2033353487444444</v>
+      </c>
+      <c r="R8">
+        <v>1.8300181387</v>
+      </c>
+      <c r="S8">
+        <v>0.0002588799002060619</v>
+      </c>
+      <c r="T8">
+        <v>0.0002905943722577706</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.579712666666667</v>
+      </c>
+      <c r="H9">
+        <v>4.739138</v>
+      </c>
+      <c r="I9">
+        <v>0.4307424838011595</v>
+      </c>
+      <c r="J9">
+        <v>0.483480476537291</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>0.04088</v>
+      </c>
+      <c r="N9">
+        <v>0.08176</v>
+      </c>
+      <c r="O9">
+        <v>0.0001908783741692303</v>
+      </c>
+      <c r="P9">
+        <v>0.000127260346528834</v>
+      </c>
+      <c r="Q9">
+        <v>0.06457865381333333</v>
+      </c>
+      <c r="R9">
+        <v>0.38747192288</v>
+      </c>
+      <c r="S9">
+        <v>8.221942499358132E-05</v>
+      </c>
+      <c r="T9">
+        <v>6.152789298406146E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1572373333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.471712</v>
+      </c>
+      <c r="I10">
+        <v>0.04287412574160376</v>
+      </c>
+      <c r="J10">
+        <v>0.04812342298290504</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>125.6990966666667</v>
+      </c>
+      <c r="N10">
+        <v>377.09729</v>
+      </c>
+      <c r="O10">
+        <v>0.5869187672767673</v>
+      </c>
+      <c r="P10">
+        <v>0.5869561130196211</v>
+      </c>
+      <c r="Q10">
+        <v>19.76459076227556</v>
+      </c>
+      <c r="R10">
+        <v>177.88131686048</v>
+      </c>
+      <c r="S10">
+        <v>0.0251636290283312</v>
+      </c>
+      <c r="T10">
+        <v>0.02824633729924505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1572373333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.471712</v>
+      </c>
+      <c r="I11">
+        <v>0.04287412574160376</v>
+      </c>
+      <c r="J11">
+        <v>0.04812342298290504</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>88.299099</v>
+      </c>
+      <c r="N11">
+        <v>264.897297</v>
+      </c>
+      <c r="O11">
+        <v>0.4122893458348313</v>
+      </c>
+      <c r="P11">
+        <v>0.4123155798773417</v>
+      </c>
+      <c r="Q11">
+        <v>13.883914862496</v>
+      </c>
+      <c r="R11">
+        <v>124.955233762464</v>
+      </c>
+      <c r="S11">
+        <v>0.01767654525524612</v>
+      </c>
+      <c r="T11">
+        <v>0.01984203705287909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.601270441457087</v>
-      </c>
-      <c r="H7">
-        <v>0.601270441457087</v>
-      </c>
-      <c r="I7">
-        <v>0.2432381204177632</v>
-      </c>
-      <c r="J7">
-        <v>0.2432381204177632</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>86.3148099493295</v>
-      </c>
-      <c r="N7">
-        <v>86.3148099493295</v>
-      </c>
-      <c r="O7">
-        <v>0.4189994204176315</v>
-      </c>
-      <c r="P7">
-        <v>0.4189994204176315</v>
-      </c>
-      <c r="Q7">
-        <v>51.89854388251791</v>
-      </c>
-      <c r="R7">
-        <v>51.89854388251791</v>
-      </c>
-      <c r="S7">
-        <v>0.1019166314785168</v>
-      </c>
-      <c r="T7">
-        <v>0.1019166314785168</v>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1572373333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.471712</v>
+      </c>
+      <c r="I12">
+        <v>0.04287412574160376</v>
+      </c>
+      <c r="J12">
+        <v>0.04812342298290504</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.1287166666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.38615</v>
+      </c>
+      <c r="O12">
+        <v>0.0006010085142322918</v>
+      </c>
+      <c r="P12">
+        <v>0.0006010467565081856</v>
+      </c>
+      <c r="Q12">
+        <v>0.02023906542222222</v>
+      </c>
+      <c r="R12">
+        <v>0.1821515888</v>
+      </c>
+      <c r="S12">
+        <v>2.576771461096974E-05</v>
+      </c>
+      <c r="T12">
+        <v>2.892442729594655E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1572373333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.471712</v>
+      </c>
+      <c r="I13">
+        <v>0.04287412574160376</v>
+      </c>
+      <c r="J13">
+        <v>0.04812342298290504</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.04088</v>
+      </c>
+      <c r="N13">
+        <v>0.08176</v>
+      </c>
+      <c r="O13">
+        <v>0.0001908783741692303</v>
+      </c>
+      <c r="P13">
+        <v>0.000127260346528834</v>
+      </c>
+      <c r="Q13">
+        <v>0.006427862186666667</v>
+      </c>
+      <c r="R13">
+        <v>0.03856717312</v>
+      </c>
+      <c r="S13">
+        <v>8.18374341548447E-06</v>
+      </c>
+      <c r="T13">
+        <v>6.124203484958151E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.740156</v>
+      </c>
+      <c r="I14">
+        <v>0.06727312727342631</v>
+      </c>
+      <c r="J14">
+        <v>0.07550971834792217</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>125.6990966666667</v>
+      </c>
+      <c r="N14">
+        <v>377.09729</v>
+      </c>
+      <c r="O14">
+        <v>0.5869187672767673</v>
+      </c>
+      <c r="P14">
+        <v>0.5869561130196211</v>
+      </c>
+      <c r="Q14">
+        <v>31.01231353080445</v>
+      </c>
+      <c r="R14">
+        <v>279.1108217772401</v>
+      </c>
+      <c r="S14">
+        <v>0.03948386093017244</v>
+      </c>
+      <c r="T14">
+        <v>0.04432089077670277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.740156</v>
+      </c>
+      <c r="I15">
+        <v>0.06727312727342631</v>
+      </c>
+      <c r="J15">
+        <v>0.07550971834792217</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>88.299099</v>
+      </c>
+      <c r="N15">
+        <v>264.897297</v>
+      </c>
+      <c r="O15">
+        <v>0.4122893458348313</v>
+      </c>
+      <c r="P15">
+        <v>0.4123155798773417</v>
+      </c>
+      <c r="Q15">
+        <v>21.785035973148</v>
+      </c>
+      <c r="R15">
+        <v>196.065323758332</v>
+      </c>
+      <c r="S15">
+        <v>0.02773599363582429</v>
+      </c>
+      <c r="T15">
+        <v>0.03113383330699828</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.740156</v>
+      </c>
+      <c r="I16">
+        <v>0.06727312727342631</v>
+      </c>
+      <c r="J16">
+        <v>0.07550971834792217</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.1287166666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.38615</v>
+      </c>
+      <c r="O16">
+        <v>0.0006010085142322918</v>
+      </c>
+      <c r="P16">
+        <v>0.0006010467565081856</v>
+      </c>
+      <c r="Q16">
+        <v>0.03175680437777778</v>
+      </c>
+      <c r="R16">
+        <v>0.2858112394</v>
+      </c>
+      <c r="S16">
+        <v>4.043172227036182E-05</v>
+      </c>
+      <c r="T16">
+        <v>4.538487129786525E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.740156</v>
+      </c>
+      <c r="I17">
+        <v>0.06727312727342631</v>
+      </c>
+      <c r="J17">
+        <v>0.07550971834792217</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.04088</v>
+      </c>
+      <c r="N17">
+        <v>0.08176</v>
+      </c>
+      <c r="O17">
+        <v>0.0001908783741692303</v>
+      </c>
+      <c r="P17">
+        <v>0.000127260346528834</v>
+      </c>
+      <c r="Q17">
+        <v>0.01008585909333333</v>
+      </c>
+      <c r="R17">
+        <v>0.06051515456</v>
+      </c>
+      <c r="S17">
+        <v>1.284098515923132E-05</v>
+      </c>
+      <c r="T17">
+        <v>9.609392923251231E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.4836246666666666</v>
+      </c>
+      <c r="H18">
+        <v>1.450874</v>
+      </c>
+      <c r="I18">
+        <v>0.1318706208687157</v>
+      </c>
+      <c r="J18">
+        <v>0.1480162115801577</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>125.6990966666667</v>
+      </c>
+      <c r="N18">
+        <v>377.09729</v>
+      </c>
+      <c r="O18">
+        <v>0.5869187672767673</v>
+      </c>
+      <c r="P18">
+        <v>0.5869561130196211</v>
+      </c>
+      <c r="Q18">
+        <v>60.79118372571778</v>
+      </c>
+      <c r="R18">
+        <v>547.1206535314601</v>
+      </c>
+      <c r="S18">
+        <v>0.07739734224028855</v>
+      </c>
+      <c r="T18">
+        <v>0.08687902021297922</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4836246666666666</v>
+      </c>
+      <c r="H19">
+        <v>1.450874</v>
+      </c>
+      <c r="I19">
+        <v>0.1318706208687157</v>
+      </c>
+      <c r="J19">
+        <v>0.1480162115801577</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>88.299099</v>
+      </c>
+      <c r="N19">
+        <v>264.897297</v>
+      </c>
+      <c r="O19">
+        <v>0.4122893458348313</v>
+      </c>
+      <c r="P19">
+        <v>0.4123155798773417</v>
+      </c>
+      <c r="Q19">
+        <v>42.70362232084199</v>
+      </c>
+      <c r="R19">
+        <v>384.332600887578</v>
+      </c>
+      <c r="S19">
+        <v>0.05436885201279584</v>
+      </c>
+      <c r="T19">
+        <v>0.06102939010892004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.4836246666666666</v>
+      </c>
+      <c r="H20">
+        <v>1.450874</v>
+      </c>
+      <c r="I20">
+        <v>0.1318706208687157</v>
+      </c>
+      <c r="J20">
+        <v>0.1480162115801577</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.1287166666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.38615</v>
+      </c>
+      <c r="O20">
+        <v>0.0006010085142322918</v>
+      </c>
+      <c r="P20">
+        <v>0.0006010467565081856</v>
+      </c>
+      <c r="Q20">
+        <v>0.06225055501111111</v>
+      </c>
+      <c r="R20">
+        <v>0.5602549951</v>
+      </c>
+      <c r="S20">
+        <v>7.925536591919666E-05</v>
+      </c>
+      <c r="T20">
+        <v>8.896466388088314E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4836246666666666</v>
+      </c>
+      <c r="H21">
+        <v>1.450874</v>
+      </c>
+      <c r="I21">
+        <v>0.1318706208687157</v>
+      </c>
+      <c r="J21">
+        <v>0.1480162115801577</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.04088</v>
+      </c>
+      <c r="N21">
+        <v>0.08176</v>
+      </c>
+      <c r="O21">
+        <v>0.0001908783741692303</v>
+      </c>
+      <c r="P21">
+        <v>0.000127260346528834</v>
+      </c>
+      <c r="Q21">
+        <v>0.01977057637333333</v>
+      </c>
+      <c r="R21">
+        <v>0.11862345824</v>
+      </c>
+      <c r="S21">
+        <v>2.517124971210741E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.883659437757609E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.7273215</v>
+      </c>
+      <c r="H22">
+        <v>1.454643</v>
+      </c>
+      <c r="I22">
+        <v>0.1983197805794968</v>
+      </c>
+      <c r="J22">
+        <v>0.1484007198844251</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>125.6990966666667</v>
+      </c>
+      <c r="N22">
+        <v>377.09729</v>
+      </c>
+      <c r="O22">
+        <v>0.5869187672767673</v>
+      </c>
+      <c r="P22">
+        <v>0.5869561130196211</v>
+      </c>
+      <c r="Q22">
+        <v>91.42365553624501</v>
+      </c>
+      <c r="R22">
+        <v>548.54193321747</v>
+      </c>
+      <c r="S22">
+        <v>0.1163976011443172</v>
+      </c>
+      <c r="T22">
+        <v>0.08710470971267574</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.7273215</v>
+      </c>
+      <c r="H23">
+        <v>1.454643</v>
+      </c>
+      <c r="I23">
+        <v>0.1983197805794968</v>
+      </c>
+      <c r="J23">
+        <v>0.1484007198844251</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>88.299099</v>
+      </c>
+      <c r="N23">
+        <v>264.897297</v>
+      </c>
+      <c r="O23">
+        <v>0.4122893458348313</v>
+      </c>
+      <c r="P23">
+        <v>0.4123155798773417</v>
+      </c>
+      <c r="Q23">
+        <v>64.22183313332849</v>
+      </c>
+      <c r="R23">
+        <v>385.3309987999709</v>
+      </c>
+      <c r="S23">
+        <v>0.081765132601228</v>
+      </c>
+      <c r="T23">
+        <v>0.06118792887336168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.7273215</v>
+      </c>
+      <c r="H24">
+        <v>1.454643</v>
+      </c>
+      <c r="I24">
+        <v>0.1983197805794968</v>
+      </c>
+      <c r="J24">
+        <v>0.1484007198844251</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.1287166666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.38615</v>
+      </c>
+      <c r="O24">
+        <v>0.0006010085142322918</v>
+      </c>
+      <c r="P24">
+        <v>0.0006010467565081856</v>
+      </c>
+      <c r="Q24">
+        <v>0.093618399075</v>
+      </c>
+      <c r="R24">
+        <v>0.5617103944499999</v>
+      </c>
+      <c r="S24">
+        <v>0.0001191918766689575</v>
+      </c>
+      <c r="T24">
+        <v>8.919577135001349E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.7273215</v>
+      </c>
+      <c r="H25">
+        <v>1.454643</v>
+      </c>
+      <c r="I25">
+        <v>0.1983197805794968</v>
+      </c>
+      <c r="J25">
+        <v>0.1484007198844251</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.04088</v>
+      </c>
+      <c r="N25">
+        <v>0.08176</v>
+      </c>
+      <c r="O25">
+        <v>0.0001908783741692303</v>
+      </c>
+      <c r="P25">
+        <v>0.000127260346528834</v>
+      </c>
+      <c r="Q25">
+        <v>0.02973290292</v>
+      </c>
+      <c r="R25">
+        <v>0.11893161168</v>
+      </c>
+      <c r="S25">
+        <v>3.785495728261283E-05</v>
+      </c>
+      <c r="T25">
+        <v>1.888552703762037E-05</v>
       </c>
     </row>
   </sheetData>
